--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A620CB8D-31DF-4764-AA14-2152C40C01F3}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2885C487-3284-4422-97C9-AE3D6680D6C7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3984" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Related User Story</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>James Bridges</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Brailey</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B3:B7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,6 +1435,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1442,6 +1451,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1455,6 +1467,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1468,6 +1483,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1481,6 +1499,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1494,6 +1515,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1507,6 +1531,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1520,6 +1547,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1533,6 +1563,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1546,6 +1579,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2885C487-3284-4422-97C9-AE3D6680D6C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87110851-D776-430A-88F3-A6D516694A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Related User Story</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Brailey</t>
+  </si>
+  <si>
+    <t>Load Locations From File</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1104,10 +1107,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1373,18 +1372,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1421,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1455,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1471,7 +1470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1487,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1503,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1519,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1535,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1551,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1567,7 +1566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1583,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1599,16 +1598,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1617,7 +1623,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1626,7 +1632,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1635,7 +1641,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1644,7 +1650,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1653,7 +1659,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1662,7 +1668,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1671,7 +1677,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1680,7 +1686,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1689,7 +1695,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1698,7 +1704,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1707,7 +1713,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1716,13 +1722,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87110851-D776-430A-88F3-A6D516694A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA327131-9881-4C7B-84F7-57C45788E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA327131-9881-4C7B-84F7-57C45788E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16EB18-F30A-42F9-85D5-6B6F3997B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1460,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16EB18-F30A-42F9-85D5-6B6F3997B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5716F-AB7D-413E-99DB-8790F421BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5716F-AB7D-413E-99DB-8790F421BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA114AD-66EF-49C8-B17B-92CE4D60D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint_Backlog_Burndown.xlsx
+++ b/documentation/Sprint_Backlog_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lw00116\Desktop\Text Adventure James\TextAdventureGame\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA114AD-66EF-49C8-B17B-92CE4D60D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{BCA114AD-66EF-49C8-B17B-92CE4D60D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8072AFB-CF3A-42F5-8B89-A393648D063D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1107,6 +1107,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1373,17 +1377,17 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1420,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1434,9 @@
       <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1438,15 +1444,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1454,15 +1462,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1470,15 +1480,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1486,15 +1498,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1502,7 +1516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1510,7 +1524,9 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1518,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1526,7 +1542,9 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1534,7 +1552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1542,7 +1560,9 @@
       <c r="C10" s="1">
         <v>0.5</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1550,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1558,7 +1578,9 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1566,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1574,7 +1596,9 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1582,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1590,7 +1614,9 @@
       <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1598,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -1606,7 +1632,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1614,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1623,7 +1651,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1632,7 +1660,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1641,7 +1669,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1650,7 +1678,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1659,7 +1687,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1668,7 +1696,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1677,7 +1705,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1686,7 +1714,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1695,7 +1723,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1704,7 +1732,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1713,7 +1741,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1722,13 +1750,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>30</v>
+        <v>39.5</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
